--- a/Compétences/Resources/Statistiques.xlsx
+++ b/Compétences/Resources/Statistiques.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="DNB" sheetId="2" r:id="rId1"/>
+    <sheet name="Epreuves" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Non admis</t>
   </si>
@@ -56,10 +57,34 @@
     <t xml:space="preserve">            </t>
   </si>
   <si>
-    <t>Année scolaire 2017-2018</t>
-  </si>
-  <si>
     <t>Candidats</t>
+  </si>
+  <si>
+    <t>Questions sur un texte et réécriture</t>
+  </si>
+  <si>
+    <t>Dictée</t>
+  </si>
+  <si>
+    <t>Expression écrite</t>
+  </si>
+  <si>
+    <t>Mathématiques</t>
+  </si>
+  <si>
+    <t>Histoire et Géographie, E.M.C.</t>
+  </si>
+  <si>
+    <t>S.V.T</t>
+  </si>
+  <si>
+    <t>Technologie</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Moyenne générale</t>
   </si>
 </sst>
 </file>
@@ -70,7 +95,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +151,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -153,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -211,11 +252,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -232,36 +503,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -274,31 +527,130 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,42 +944,40 @@
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
     <col min="3" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="7" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -647,199 +997,199 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <f>D4+E4+F4+G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="13" t="e">
+      <c r="I4" s="18" t="e">
         <f>H4/(C4+D4+E4+F4+G4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <f t="shared" ref="H5:H13" si="0">D5+E5+F5+G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="e">
+      <c r="I5" s="20" t="e">
         <f t="shared" ref="I5:I13" si="1">H5/(C5+D5+E5+F5+G5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="27">
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="28" t="e">
+      <c r="I6" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="15" t="e">
+      <c r="I7" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="18"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="27">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="28" t="e">
+      <c r="I8" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="15" t="e">
+      <c r="I9" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="18"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="27">
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="28" t="e">
+      <c r="I10" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="15" t="e">
+      <c r="I11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="27">
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="28" t="e">
+      <c r="I12" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="12">
+      <c r="A13" s="23"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="15" t="e">
+      <c r="I13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>0</v>
@@ -859,185 +1209,618 @@
       <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <f>D16+E16+F16+G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="13" t="e">
+      <c r="I16" s="18" t="e">
         <f>H16/(C16+D16+E16+F16+G16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="12">
-        <f t="shared" ref="H17:H24" si="2">D17+E17+F17+G17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="15" t="e">
-        <f t="shared" ref="I17:I24" si="3">H17/(C17+D17+E17+F17+G17)</f>
+      <c r="H17" s="9">
+        <f t="shared" ref="H17:H25" si="2">D17+E17+F17+G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="20" t="e">
+        <f t="shared" ref="I17:I25" si="3">H17/(C17+D17+E17+F17+G17)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="27">
+      <c r="H18" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="28" t="e">
+      <c r="I18" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="12">
+      <c r="H19" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="15" t="e">
+      <c r="I19" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="18"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="27">
+      <c r="H20" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20" s="28" t="e">
+      <c r="I20" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="12">
+      <c r="H21" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="15" t="e">
+      <c r="I21" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="18"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="27">
+      <c r="H22" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I22" s="28" t="e">
+      <c r="I22" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="12">
+      <c r="H23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="15" t="e">
+      <c r="I23" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="27">
+      <c r="H24" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I24" s="28" t="e">
+      <c r="I24" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="11">
-        <f t="shared" ref="H25" si="4">D25+E25+F25+G25</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="e">
-        <f t="shared" ref="I25" si="5">H25/(C25+D25+E25+F25+G25)</f>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="28" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.62992125984251968" right="0.11811023622047245" top="0.23622047244094491" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33" t="e">
+        <f>AVERAGE(B4:H4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="53" t="e">
+        <f t="shared" ref="J5:J13" si="0">AVERAGE(B5:H5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="33" t="e">
+        <f>AVERAGE(B16:I16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="53" t="e">
+        <f t="shared" ref="J17:J25" si="1">AVERAGE(B17:I17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Compétences/Resources/Statistiques.xlsx
+++ b/Compétences/Resources/Statistiques.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2015\Projects\Compétences\Compétences\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2015\Projects\Compétences ELyco\Compétences\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="DNB" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Non admis</t>
   </si>
@@ -48,12 +48,6 @@
     <t>% admis</t>
   </si>
   <si>
-    <t>DNB N°1</t>
-  </si>
-  <si>
-    <t>DNB N°2</t>
-  </si>
-  <si>
     <t xml:space="preserve">            </t>
   </si>
   <si>
@@ -85,6 +79,18 @@
   </si>
   <si>
     <t>Moyenne générale</t>
+  </si>
+  <si>
+    <t>DNB N°1 - Synthèse</t>
+  </si>
+  <si>
+    <t>DNB N°2 - Synthèse</t>
+  </si>
+  <si>
+    <t>DNB N°1 - Moyennes des épreuves écrites  ( /20 )</t>
+  </si>
+  <si>
+    <t>DNB N°2 - Moyennes des épreuves écrites et de l'oral  ( /20 )</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,21 +113,6 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,8 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,14 +150,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <i/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF0070C0"/>
+      <name val="MV Boli"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="MV Boli"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +220,25 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="2"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -482,11 +526,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -509,25 +568,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,19 +598,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,28 +622,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,34 +673,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -935,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,35 +1032,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1172,24 +1255,24 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
+      <c r="A14" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>0</v>
@@ -1398,420 +1481,419 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="7" customWidth="1"/>
+    <col min="1" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="7" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="A2" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="29" t="s">
+      <c r="I3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="J3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="31"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33" t="e">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="30" t="e">
         <f>AVERAGE(B4:H4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="53" t="e">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="43" t="e">
         <f t="shared" ref="J5:J13" si="0">AVERAGE(B5:H5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="54" t="e">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="53" t="e">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="54" t="e">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="53" t="e">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="54" t="e">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="53" t="e">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="54" t="e">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="53" t="e">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
+      <c r="A14" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="C15" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="D15" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="I15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="J15" s="48" t="s">
         <v>17</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="33" t="e">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="30" t="e">
         <f>AVERAGE(B16:I16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="53" t="e">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="43" t="e">
         <f t="shared" ref="J17:J25" si="1">AVERAGE(B17:I17)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="54" t="e">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="53" t="e">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="45"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="54" t="e">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="53" t="e">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="54" t="e">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="53" t="e">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="54" t="e">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="55" t="e">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1822,7 +1904,7 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageMargins left="0.47244094488188981" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Compétences/Resources/Statistiques.xlsx
+++ b/Compétences/Resources/Statistiques.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2015\Projects\Compétences ELyco\Compétences\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2015\Projects\Compétences\Compétences\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DNB" sheetId="2" r:id="rId1"/>
@@ -706,6 +706,18 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,18 +725,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,28 +1032,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1092,14 +1092,8 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="8">
-        <f>D4+E4+F4+G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="e">
-        <f>H4/(C4+D4+E4+F4+G4)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -1109,14 +1103,8 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="9">
-        <f t="shared" ref="H5:H13" si="0">D5+E5+F5+G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="20" t="e">
-        <f t="shared" ref="I5:I13" si="1">H5/(C5+D5+E5+F5+G5)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
@@ -1126,14 +1114,8 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -1143,14 +1125,8 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
@@ -1160,14 +1136,8 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -1177,14 +1147,8 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
@@ -1194,14 +1158,8 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -1211,14 +1169,8 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
@@ -1228,14 +1180,8 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -1245,27 +1191,21 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1304,14 +1244,8 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="8">
-        <f>D16+E16+F16+G16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="18" t="e">
-        <f>H16/(C16+D16+E16+F16+G16)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -1321,14 +1255,8 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="9">
-        <f t="shared" ref="H17:H25" si="2">D17+E17+F17+G17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="20" t="e">
-        <f t="shared" ref="I17:I25" si="3">H17/(C17+D17+E17+F17+G17)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
@@ -1338,14 +1266,8 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -1355,14 +1277,8 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -1372,14 +1288,8 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
@@ -1389,14 +1299,8 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
@@ -1406,14 +1310,8 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
@@ -1423,14 +1321,8 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
@@ -1440,14 +1332,8 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
@@ -1457,14 +1343,8 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="28" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1481,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,16 +1373,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -1561,10 +1441,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="50"/>
-      <c r="J4" s="30" t="e">
-        <f>AVERAGE(B4:H4)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -1576,10 +1453,7 @@
       <c r="G5" s="33"/>
       <c r="H5" s="34"/>
       <c r="I5" s="49"/>
-      <c r="J5" s="43" t="e">
-        <f t="shared" ref="J5:J13" si="0">AVERAGE(B5:H5)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
@@ -1591,10 +1465,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -1606,10 +1477,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="34"/>
       <c r="I7" s="52"/>
-      <c r="J7" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
@@ -1621,10 +1489,7 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -1636,10 +1501,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="34"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
@@ -1651,10 +1513,7 @@
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -1666,10 +1525,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="34"/>
       <c r="I11" s="52"/>
-      <c r="J11" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
@@ -1681,10 +1537,7 @@
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="51"/>
-      <c r="J12" s="44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -1696,24 +1549,21 @@
       <c r="G13" s="41"/>
       <c r="H13" s="34"/>
       <c r="I13" s="49"/>
-      <c r="J13" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1757,10 +1607,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="30" t="e">
-        <f>AVERAGE(B16:I16)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -1772,10 +1619,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="43" t="e">
-        <f t="shared" ref="J17:J25" si="1">AVERAGE(B17:I17)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
@@ -1787,10 +1631,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
-      <c r="J18" s="44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -1802,10 +1643,7 @@
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="43" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J19" s="43"/>
       <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,10 +1656,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
-      <c r="J20" s="44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
@@ -1833,10 +1668,7 @@
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="43" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
@@ -1848,10 +1680,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
-      <c r="J22" s="44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
@@ -1863,10 +1692,7 @@
       <c r="G23" s="33"/>
       <c r="H23" s="34"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="43" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
@@ -1878,10 +1704,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="37"/>
-      <c r="J24" s="44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
@@ -1893,10 +1716,7 @@
       <c r="G25" s="38"/>
       <c r="H25" s="39"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J25" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Compétences/Resources/Statistiques.xlsx
+++ b/Compétences/Resources/Statistiques.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2015\Projects\Compétences\Compétences\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2015\Projects\Compétences ELyco\Compétences\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="DNB" sheetId="2" r:id="rId1"/>
     <sheet name="Epreuves" sheetId="1" r:id="rId2"/>
+    <sheet name="Controle continu" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Non admis</t>
   </si>
@@ -91,6 +92,36 @@
   </si>
   <si>
     <t>DNB N°2 - Moyennes des épreuves écrites et de l'oral  ( /20 )</t>
+  </si>
+  <si>
+    <t>Langue française à l'oral et à l'écrit</t>
+  </si>
+  <si>
+    <t>Langues étrangères et régionales</t>
+  </si>
+  <si>
+    <t>Langages mathématiques, scientifiques et informatiques</t>
+  </si>
+  <si>
+    <t>Langages des arts et du corps</t>
+  </si>
+  <si>
+    <t>Les méthodes et outils pour apprendre</t>
+  </si>
+  <si>
+    <t>La formation de la personne et du citoyen</t>
+  </si>
+  <si>
+    <t>Les systèmes naturels et les systèmes techniques</t>
+  </si>
+  <si>
+    <t>Les représentations du monde et l'activité humaine</t>
+  </si>
+  <si>
+    <t>DNB N°1 - Moyennes du contrôle continu  ( /20 )</t>
+  </si>
+  <si>
+    <t>DNB N°2 - Moyennes du contrôle continu  ( /20 )</t>
   </si>
 </sst>
 </file>
@@ -195,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +268,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -545,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -734,6 +777,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1018,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16:I25"/>
     </sheetView>
   </sheetViews>
@@ -1361,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,4 +1785,376 @@
   <pageMargins left="0.47244094488188981" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="44"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A14:J14"/>
+  </mergeCells>
+  <pageMargins left="0.47244094488188981" right="0.11811023622047245" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Compétences/Resources/Statistiques.xlsx
+++ b/Compétences/Resources/Statistiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2015\Projects\Compétences ELyco\Compétences\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2015\Projects\Compétences\Compétences\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Non admis</t>
   </si>
@@ -132,7 +132,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +225,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -281,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -584,11 +593,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -749,6 +778,75 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,19 +877,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,46 +1169,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I25"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.7109375" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1238,11 @@
       <c r="I3" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="5"/>
       <c r="C4" s="10"/>
@@ -1152,8 +1252,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
       <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="4"/>
       <c r="C5" s="11"/>
@@ -1163,8 +1264,9 @@
       <c r="G5" s="4"/>
       <c r="H5" s="9"/>
       <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="12"/>
@@ -1174,8 +1276,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="14"/>
       <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11"/>
@@ -1185,8 +1288,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="9"/>
       <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="12"/>
@@ -1196,8 +1300,9 @@
       <c r="G8" s="3"/>
       <c r="H8" s="14"/>
       <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11"/>
@@ -1207,8 +1312,9 @@
       <c r="G9" s="4"/>
       <c r="H9" s="9"/>
       <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="12"/>
@@ -1218,8 +1324,9 @@
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
       <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -1229,8 +1336,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="9"/>
       <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
@@ -1240,8 +1348,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
       <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -1251,21 +1360,23 @@
       <c r="G13" s="6"/>
       <c r="H13" s="9"/>
       <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
-    </row>
-    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+    </row>
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -1293,8 +1404,11 @@
       <c r="I15" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="5"/>
       <c r="C16" s="10"/>
@@ -1304,8 +1418,9 @@
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
       <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -1315,8 +1430,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="9"/>
       <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="3"/>
       <c r="C18" s="12"/>
@@ -1326,8 +1442,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="14"/>
       <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -1337,8 +1454,9 @@
       <c r="G19" s="4"/>
       <c r="H19" s="9"/>
       <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="3"/>
       <c r="C20" s="12"/>
@@ -1348,8 +1466,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
       <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
@@ -1359,8 +1478,9 @@
       <c r="G21" s="4"/>
       <c r="H21" s="9"/>
       <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="3"/>
       <c r="C22" s="12"/>
@@ -1370,8 +1490,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
       <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -1381,8 +1502,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="9"/>
       <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="12"/>
@@ -1392,8 +1514,9 @@
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
       <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
@@ -1403,12 +1526,13 @@
       <c r="G25" s="25"/>
       <c r="H25" s="27"/>
       <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A14:J14"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.11811023622047245" top="0.23622047244094491" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1431,30 +1555,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1610,18 +1734,18 @@
       <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1792,7 +1916,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,350 +1927,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="75" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="30"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="43"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="44"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="43"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="44"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="43"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="44"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="43"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="44"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="43"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="75" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="30"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="56"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="43"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="44"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="43"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="44"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="43"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="44"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="43"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="44"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="45"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Compétences/Resources/Statistiques.xlsx
+++ b/Compétences/Resources/Statistiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2015\Projects\Compétences\Compétences\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2015\Projects\Compétences ELyco\Compétences\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -118,10 +118,10 @@
     <t>Les représentations du monde et l'activité humaine</t>
   </si>
   <si>
-    <t>DNB N°1 - Moyennes du contrôle continu  ( /20 )</t>
-  </si>
-  <si>
-    <t>DNB N°2 - Moyennes du contrôle continu  ( /20 )</t>
+    <t>DNB N°1 - Moyennes du contrôle continu</t>
+  </si>
+  <si>
+    <t>DNB N°2 - Moyennes du contrôle continu</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -503,19 +503,6 @@
       </left>
       <right style="thin">
         <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.1498764000366222"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.1498764000366222"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -613,11 +600,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.1498458815271462"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.1498458815271462"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.1498458815271462"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.1498458815271462"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.1498458815271462"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -664,27 +739,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,9 +763,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,33 +772,33 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,22 +811,22 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,13 +835,13 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,7 +853,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,37 +874,100 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,34 +982,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1268,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A14" sqref="A14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,30 +1281,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1235,15 +1331,15 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5"/>
       <c r="C4" s="10"/>
       <c r="D4" s="5"/>
@@ -1251,11 +1347,11 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="11"/>
       <c r="D5" s="4"/>
@@ -1263,11 +1359,11 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3"/>
       <c r="C6" s="12"/>
       <c r="D6" s="3"/>
@@ -1275,11 +1371,11 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11"/>
       <c r="D7" s="4"/>
@@ -1287,11 +1383,11 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3"/>
       <c r="C8" s="12"/>
       <c r="D8" s="3"/>
@@ -1299,11 +1395,11 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11"/>
       <c r="D9" s="4"/>
@@ -1311,11 +1407,11 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3"/>
       <c r="C10" s="12"/>
       <c r="D10" s="3"/>
@@ -1323,11 +1419,11 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
       <c r="D11" s="4"/>
@@ -1335,11 +1431,11 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
       <c r="D12" s="3"/>
@@ -1347,11 +1443,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
       <c r="D13" s="6"/>
@@ -1359,22 +1455,22 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="97"/>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1401,15 +1497,15 @@
       <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>6</v>
+      <c r="J15" s="72" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="5"/>
       <c r="C16" s="10"/>
       <c r="D16" s="5"/>
@@ -1417,11 +1513,11 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="4"/>
@@ -1429,11 +1525,11 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="74"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3"/>
       <c r="C18" s="12"/>
       <c r="D18" s="3"/>
@@ -1441,11 +1537,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="75"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
       <c r="D19" s="4"/>
@@ -1453,11 +1549,11 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="3"/>
       <c r="C20" s="12"/>
       <c r="D20" s="3"/>
@@ -1465,11 +1561,11 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="75"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
       <c r="D21" s="4"/>
@@ -1477,11 +1573,11 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="74"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3"/>
       <c r="C22" s="12"/>
       <c r="D22" s="3"/>
@@ -1489,11 +1585,11 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
       <c r="D23" s="4"/>
@@ -1501,11 +1597,11 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="74"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3"/>
       <c r="C24" s="12"/>
       <c r="D24" s="3"/>
@@ -1513,20 +1609,20 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="75"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1555,350 +1651,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="29"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="30"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="43"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="44"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="43"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="44"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="43"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="44"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="43"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="44"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="43"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="30"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="43"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="44"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="42"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="44"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="43"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="44"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="43"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="44"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="45"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1916,7 +2012,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,350 +2023,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="29"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="60"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="60"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="60"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="70" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="56"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="60"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="63"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="42"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="63"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="60"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="63"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="60"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="63"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Compétences/Resources/Statistiques.xlsx
+++ b/Compétences/Resources/Statistiques.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DNB" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Non admis</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>DNB N°2 - Moyennes du contrôle continu</t>
+  </si>
+  <si>
+    <t>Physique Chimie</t>
   </si>
 </sst>
 </file>
@@ -952,6 +955,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -980,9 +986,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1267,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:J14"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1307,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
       <c r="I2" s="86"/>
-      <c r="J2" s="97"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1470,7 +1473,7 @@
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
       <c r="I14" s="86"/>
-      <c r="J14" s="97"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1639,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,30 +1654,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1696,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H3" s="41" t="s">
         <v>13</v>
@@ -1830,18 +1833,18 @@
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -2023,30 +2026,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2202,18 +2205,18 @@
       <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
